--- a/vessel_review.xlsx
+++ b/vessel_review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avh/Google Drive/manuscripts/shark-matters-arising/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6417E351-A67B-4347-904B-9530988E95F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C96F95A-1285-7344-854B-7130BADDB374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{AB00F1A2-5306-1948-ABEF-2B0CC8EE5B29}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="240">
   <si>
     <t>AUS</t>
   </si>
@@ -448,9 +448,6 @@
     <t xml:space="preserve">The Desert Winds is vessel that uses ROV to harvest specimen shells for collectors. It is also a licenced tour operator enabling it to conduct charter fishing activities. The vessel is listed on the Navigate (Fisheries WA) vessel registry. The Specimen Shell Fishery is a statewide fishery in Western Australia and the spatial data are consistent with this. Conclusion: All data are consistent with this MMSI and associated data belonging to the Desert Winds fishing in accordance with its commercial fishing licence conditions, and not drifting longline fishing. </t>
   </si>
   <si>
-    <t>The Larissa E is a demersal prawn trawler operating in the Queensland East Coast Otter Trawl Fishery. It is listed on the FishNet (Qld Fisheries) vessel registry. The footprint of this vessel falls within the boundaries of the trawl fshery (T1). The vessel is not listed on the WCPFC record of tuna longline vessels. The vessel footprint also falls mainly within the Great Barrier Reef Marine Park, where the Eastern Tuna &amp; Billfish Fishery is not permitted to operate. Conclusion: All data are consistent with this MMSI and associated data belonging to the Larissa E fishing in accordance with its licence conditions and not a drifting longline vessel.</t>
-  </si>
-  <si>
     <t>Commonwealth Eastern Tuna &amp; Billfish Fishery</t>
   </si>
   <si>
@@ -463,12 +460,6 @@
     <t>WA Specimen Shell Managed Fishery</t>
   </si>
   <si>
-    <t>The Janntone is a demersal prawn trawler operating in the Queensland East Coast Otter Trawl Fishery. It is listed on the FishNet (Qld Fisheries) vessel registry. The footprint of this vessel falls within the boundaries of the trawl fshery (T1). The vessel is not listed on the WCPFC record of tuna longline vessels. The vessel footprint also falls mainly within the Great Barrier Reef Marine Park, where the Eastern Tuna &amp; Billfish Fishery is not permitted to operate. Conclusion: All data are consistent with this MMSI and associated data belonging to the Janntone fishing in accordance with its licence conditions and not a drifting longline vessel.</t>
-  </si>
-  <si>
-    <t>Maddison is a demersal prawn trawler operating in the Queensland East Coast Otter Trawl Fishery. It is listed on the FishNet (Qld Fisheries) vessel registry. The footprint of this vessel falls within the boundaries of the trawl fshery (T1). The vessel is not listed on the WCPFC record of tuna longline vessels. The vessel footprint also falls mainly within the Great Barrier Reef Marine Park, where the Eastern Tuna &amp; Billfish Fishery is not permitted to operate. Conclusion: All data are consistent with this MMSI and associated data belonging to Maddison fishing in accordance with its licence conditions and not a drifting longline vessel.</t>
-  </si>
-  <si>
     <t>Calibre is a drifting longline vessel operating in the Commonwealth managed Eastern Tuna &amp; Billfish Fishery. The vessel is listed on the WCPFC, and IOTC vessel registries. Spatial data are consistent with the boundaries of the ETBF. Conclusion: All lines of evidence are consistent with the original identification of this vessel being correct.</t>
   </si>
   <si>
@@ -523,15 +514,9 @@
     <t xml:space="preserve">The Aleatha T was a Darwin-based vessel that operated in the WA Northern Demersal Scalefish Managed Fishery that uses traps. In 2016 it was apparently sold and converted to a longliner in New Zealand. MMSI spatial data are consistent with the boundaries of the NDSMF.  Conclusion: All data are consistent with this MMSI and associated data belonging to the Aleatha T fishing in accordance with its commercial fishing licence conditions, and not drifting longline fishing. This vessel is given a score of 2 as it could not be located on the Navigate (Fisheries WA) vessel registry. </t>
   </si>
   <si>
-    <t xml:space="preserve">Isla Eden is a vessel owned by Austral Fisheries (https://www.australfisheries.com.au/) and operating in Commonwealth managed fisheries for toothfish and icefish. It is listed on the CAAMLR  vessel registry. The fisheries it operates in are MSC certified so considerable information exists in the public domain. The vessel uses demersal set longlines that are fundamentally different to the drifting pelagic longlines. Conclusion: All lines of evidence are consistent with the MMSI and data belonging to the Isla Eden operating in accordance with its licence conditions, and not undertaking drifting longline fishing. </t>
-  </si>
-  <si>
     <t>NSW Ocean Trap &amp; Line Fishery</t>
   </si>
   <si>
-    <t>The Lucky S is a vessel involved in the Commonwealth Southern Bluefin Tuna Fishery. In South Australian waters this fishery involves catching tuna with purse seines and ranching them in sea pens. The vessel is listed on the CCSBT vessel reigstry, and as the holder of a carrier permit in the Southern Bluefin Tuna Fishery and the spatial footprint of the vessel are most consistent with it operating in some capacity in this fishery. The spatial footprint of the vessel does overlap with the WTBF, however the year that the vessel was detected  (2016) does not match the spatial footprint of the WTBF and the vessel is not on the IOTC vessel registry.  Conclusion: All data are consistent with this MMSI and associated data belonging to the Lucky-S engaged in either purse seine fishing or activities related to purse seine fishing.</t>
-  </si>
-  <si>
     <t>Markarna</t>
   </si>
   <si>
@@ -550,18 +535,12 @@
     <t>Commonwealth Western Tuna &amp; Billfish Fishery</t>
   </si>
   <si>
-    <t>Pelamis No. 68 appears to be a drifting longline vessel that operated in the Commonwealth managed Western Tuna &amp; Billfish Fishery, although there is some ambiguity on its identity. The Pelamis Group website (http://www.pelamisgroup.com/101-fishing-fleet/1011-long-liners/10111-pelamis-68/) shows that it is or was at some point a drifting longliner, and indicates that it has operated in the Western Tuna &amp; Billfish Fishery. No vessel of this name is on the IOTC vessel registry. It appears the vessel may have been previously named the Pacific Raider 4, which is listed on the IOTC vessel registry as an Australian flagged vessel. The spatial data are consistent with the vessel operating in the WTBF. Conclusion: Although there is some ambiguity it does appear as though the original identifcation as a drifting longliner was correct.</t>
-  </si>
-  <si>
     <t>Sao Pedro was a drifting longline vessel operating in the Commonwealth managed Eastern Tuna &amp; Billfish Fishery. The vessel is listed on the WCPFC vessel registry. Spatial data are consistent with the boundaries of the ETBF. Appears to have now been purchased by a Tongan company called Pacific Sunrise Fishing and renamed Pacific Breeze. Conclusion: All lines of evidence are consistent with the original identification of this vessel being correct.</t>
   </si>
   <si>
     <t>Scorpion (a.k.a. Scoprion II) is a drifting longline vessel operating in the Commonwealth managed Eastern Tuna &amp; Billfish Fishery. The vessel is listed on the WCPFC vessel registries. Spatial data are consistent with the boundaries of the ETBF. Conclusion: All lines of evidence are consistent with the original identification of this vessel being correct.</t>
   </si>
   <si>
-    <t xml:space="preserve">The Naturaliste is a fisheries research vessel owned by the Western Australia state government. The vessel undertakes surveys to support a wide variety of the state's fisheries, in particular demersal trawl surveys for prawn and scallop fisheries in Shark Bay. The vessel undertakes Marine Park monitoring of WA's state managed parks, in particular the Lalang Garram parks and the North Kimberley Marine Park. Although it can be equiped to do a variety of survey methods, it does not undertake purse seining. Conclusion: All data are consistent with the MMSI and movement data belonging to the Naturaliste and not a purse seine vessel. </t>
-  </si>
-  <si>
     <t>Shiome was a drifting longline vessel operating in the Commonwealth managed Eastern Tuna &amp; Billfish Fishery. The vessel is listed on the WCPFC, IOTC &amp; CCSBT vessel registries. Spatial data are consistent with the boundaries of the ETBF. Conclusion: All lines of evidence are consistent with the original identification of this vessel being correct.</t>
   </si>
   <si>
@@ -586,27 +565,15 @@
     <t>Bass Rover is an offshore services / supply vessel owned by Undersea Marine Australia (http://www.underseamarine.com/). The vessel is not listed on either the WCPFC, IOTC or CCSBT vessel registries. Spatial data are consistent with the area where the company operates. Conclusion: All lines of evidence are consistent with the original identification of this vessel being incorrect and it does not appear to be a purse seine vessel</t>
   </si>
   <si>
-    <t xml:space="preserve">Svitzer Nana is a tug boat owner by Svitzer (https://svitzer.com.au/) and apparently operating out of the Port of Bowen in Queensland. The spatial footprint is restricted to the Bowen area, and the vessel is not listed on WCPFC or Fishnet (Qld Vessel registry) so does not appear to be a involved in tuna fishing or a Qld state commercial fishery. Conclusion: All data are consistent with this vessel being a tug boat and not a purse seince vessel. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Svitzer Naiad is a tug boat owner by Svitzer (https://svitzer.com.au/) and apparently operating out of the Port of Bowen in Queensland. The spatial footprint is restricted to the Bowen area, and the vessel is not listed on WCPFC or Fishnet (Qld Vessel registry) so does not appear to be a involved in tuna fishing or a Qld state commercial fishery. Conclusion: All data are consistent with this vessel being a tug boat and not a purse seince vessel. </t>
-  </si>
-  <si>
     <t>There is considerable ambiguity over the identity of Mascarin III. It appears to be a privately owned yacht at the Nelly Bay Marina on Magnetic Island, originally built in Tasmania. The vessel is not listed on WCPFC or Fishnet (Qld Vessel registry) so does not appear to be a involved in the Eastern Tuna and Billfish Fishery or any other Qld state managed commercial fishery. The spatial footprint is within the Great Barrier Reef Marine Park where longline fishing is not permitted. Conclusion: Data are inconsistent with this vessel being a drifting longline vessel.</t>
   </si>
   <si>
     <t xml:space="preserve">There is some ambiguity over the identity of this vessel. It does not appear on the Navigate (Fisheries WA) vessel registry, nor does it appear in the IOTC vessel registry indicating it is not likely to be a commercial fishing vessel. The vessel is recorded as being involved in a seismic survey during 2013 in approximately the same area where its spatial footprint is. Historically the vessel was involved in the Western Rock Lobster fishery. Conclusion: There is some ambiguity over the identity of this vessel, however it is not a commercial fishing vessel and appears to be a commercial vessel involved in offshore services. </t>
   </si>
   <si>
-    <t>Mermaid Chieftan</t>
-  </si>
-  <si>
     <t>Monika is a vessel owned by Marnikol Fisheries. It is listed on the CCSBT and IOTC vessel registries. Spatial data are consistent with the vessel operating as a purse seiner in the Commonwealth Southern Bluefin Tuna Fishery / ranching industry. Conclusion: All lines of evidence are consistent with the original identification of this vessel being correct.</t>
   </si>
   <si>
-    <t>Commowalth Northern Prawn Fishery</t>
-  </si>
-  <si>
     <t>The Victor BJ is a vessel involved in the Commonwealth managed Southern Bluefin Tuna Fishery / ranching industry. The vessel is listed on the CCSBT vessel registry and the spatial footprint is consistent with the area of operation for this fishery in South Australian waters. Although the vessel doesn't appear to be a purse seiner itself, it appears to be a support vessel for the purse seine / tuna ranching industry. Conclusion: For the intents and purposes of this the original identification of the vessel is considered correct here.</t>
   </si>
   <si>
@@ -646,24 +613,9 @@
     <t>There is very little spatial data for Le Rong Yuan Yu 30 within Australian waters that can be used to corroborate the identity of the vessel. The vessel is listed on the WCPFC and FFA vessel registries suggesting that its identification was correct. Conclusion: Assumed to be a correctly identified drifting longline vessel fishing near the boundary of the Australian EEZ.</t>
   </si>
   <si>
-    <t>Insung No. 3 is a vessel that undertakes bottom longline fishing for Patagonian tootfish in Antarctic waters. The vessel is listed on the CCAMLR vessel registry (its name has now changed to Sae In Master). Numerous public reports that mention the vessel. The spatial footprint of the vessel is consistent with fishing grounds for toothfish. Conclusion: All data are consistent with this vessel operating as a bottom set longliner and not a drifting longliner.</t>
-  </si>
-  <si>
     <t>Janas is a vessel owned by Talleys (https://www.talleys.co.nz/) that undertakes bottom longline fishing in several fisheries including Antarctic toothfish fisheries. The vessel is listed on the CCAMLR vessel registry and spatial data are consistent with fishing grounds for toothfish and other subantarctic species. The vessel has previously been part of MSC certified fisheries and is mentioned in numerous public reports, further corroborating its identity. Note there are two different MMSI records for this vessel. Conclusion: All data are consistent with the vessel operating as a bottom longliner not a drifting longliner.</t>
   </si>
   <si>
-    <t xml:space="preserve">There is considerable ambiguity over the identity of this vessel. There appear to be a number of vessels with this name in Australia and elsewhere in the region, and it also appears that this vessel uses multiple gear types to capture multiple species making it more difficult to identify. The vessel is most likely Narooma-based LFB13093, a crayfish trap vessel that may also undertake line fishing. It was not possible to access the vessel registries of NSW state fisheries to confirm this, however. The vessel does have some historic records in RFMO vessel registries suggesting that it had endosrments to catch tuna. It also does appear to have operated as a drifting longliner in the Eastern Tuna and Billfish Fishery, but stopped in 2015. Conclusion: While it seems likely that much of these data are not from drifting longlining, it appears this vessel was operating in the Commonwealth ETBF for part of the period from 2012 to 2016. For the purposes of this exercise the original identification as a drifting longliner is assumed to be correct. </t>
-  </si>
-  <si>
-    <t>There is considerable ambiguity over the identity of Athaldo. It is not listed on WCPFC or Fishnet (Qld Vessel registry) so does not appear to be a commercial fishing vessel. All data were from within a two month period on 2016 in the northern Great Barrier Reef. Further research indicated that a game fishing vessel by this name was particpating in the 2016 Cairns black marlin season which is consistent with the spatial footprint of the vessel. Conclusion: The inability to find the vessel on commercial registries, and the lack of any purse seine fisheries that operate in this area of the Great Barrier Reef Marine Park suggest that it is highly unlikely to be a purse seining vessel, and is more likely to be a game fishing vessel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was difficullt to verify the identity of the vessel Khaleesi. The spatial footprint of the vessel is in both Qld and NSW waters indicating if it was a commercial fishing vessel it would likely be operating in a Commonwealth or jointly managed fishery. The vessel is not listed on Fishnet (Qld vessel registry), nor is it listed on WCPFC registry, which suggests it iis unlikely a commercial fishing vessel. Instead, the vessel appears to be a NSW-based sailing vessel (https://www.facebook.com/khaleesisailing/), although this is difficult to confirm. Conclusion: The original identification of this vessel as a purse seiner appears to be incorrect. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is some ambiguity over the identity of this vessel. It does not appear on the Navigate (Fisheries WA) vessel registry, nor does it appear in the IOTC vessel registry indicating it is not likely to be a commercial fishing vessel. There are also no purse seine fisheries in WA that operate in this area. The vessel appears to be a tug vessel that was owned by MMA Offshore (https://www.mmaoffshore.com/) based at Dampier Port in the Pilbara, and this is consistent with its spatial footprint. The vessel is listed in some records and reports relating to the offshore oil and gas /resource extraction sector corroborate this. While it does not appear to be a fishing vessel, there is some ambiguity over its identity as MMA offshore does have numerous vessels that include the words 'Mermaid' and 'Cheiftain'. Conclusion: The data are most consistent with this being a tug boat and not a purse seine vessel. </t>
-  </si>
-  <si>
     <t>The Raptis Pearl is a demersal trawler that operates in the Commonwealth Northern Prawn Fishery owned by Raptis (https://www.raptis.com.au/). The spatial footprint of this vessel is consistent with the boundaries of the fishery. The NPF is MSC certified so there is considerable information in the public domain about this fishery and vessel. Conclusion: All data are consistent with the vessel operating as a demersal trawler in accordance with its licence conditions, and not as a purse seine vessel.</t>
   </si>
   <si>
@@ -673,18 +625,12 @@
     <t>Assassin is a drifting longline vessel operating in the Commonwealth managed Eastern Tuna &amp; Billfish Fishery and owned by Walker Seafood (https://www.walkerseafoods.com.au/). Walker seafoods are MSC certified so considerable information exists in the public domain about this company and its vessels that can corroborate its identity. The vessel is listed on the WCPF vessel registry. Spatial data are consistent with the boundaries of the ETBF. Conclusion: All lines of evidence are consistent with the original identification of this vessel being correct.</t>
   </si>
   <si>
-    <t xml:space="preserve">The Austral Leader 2 is a vessel that was previously? owned by Austral fisheries (https://www.australfisheries.com.au/) and operated in Commonwealth managed fisheries for toothfish and icefish. It is listed on the CAAMLR  vessel registry. The fisheries it operated in are MSC certified so considerable information exists in the public domain (e.g. MSC website, marketing website: https://glacier51toothfish.com/) that corroborate its identity. These fisheries involve the use of bottom set longlines that are fundamentally different to the drifting pelagic longlines. The spatial data for this vessel are consistent with the sub-antarctic fishing grounds where toothfish and icefish occur. There is some ambiguity as the MMSI now appears to belong to a different vessel, DP2 Seamaster, which supports offshore oil and gas operations in Western Australia. Despite this, the vast majority of data are consistent with the AIS data for this vessel belonging to the Austral Leader 2 operating in accordance with its licence conditions, and not undertaking drifting longline fishing. </t>
-  </si>
-  <si>
     <t>There is very little spatial data for Hoshin Maru No. 78 within Australian waters that can be used to corroborate the identity of the vessel. The vessel is listed on the WCPFC, CCSBT, ICCAT &amp; IOTC vessel registries suggesting that its identification was correct. Conclusion: Assumed to be a correctly identified drifting longline vessel fishing near the boundary of the Australian EEZ.</t>
   </si>
   <si>
     <t>There is very little spatial data for Katsuei Maru No. 88 within Australian waters that can be used to corroborate the identity of the vessel. The vessel is listed on the WCPFC, CCSBT, ICCAT &amp; IOTC vessel registries suggesting that its identification was correct. Conclusion: Assumed to be a correctly identified drifting longline vessel fishing near the boundary of the Australian EEZ.</t>
   </si>
   <si>
-    <t>Empress is an offshore services / supply vessel owned by Empress Marine (https://www.empressmarine.com.au/). The footprint of this vessel did not overlap with the spatial footprint of the Commonwealth managed WesternTuna &amp; Billfish Fishery between 2012 and 2016  (although there was some potential for overlap with years 2012 and 2013, these don't match with the vessel movements for those years). Empress is not listed on the Navigate (Fisheries WA) vessel registry indicating it does not fish commercially in WA state fisheries. It is also not listed on the IOTC vessel registry. It does appear to have been originally built as a tuna longline vessel (http://fineentrymarine.com.au/builds/empress/). According to the CCSBT vessel registry data it was active during the 2000s (https://www.ccsbt.org/). The AIS vessel movements match closely with the location of a seismic survey that Woodside Energy (https://www.woodside.com.au/) undertook in Western Australia in 2013 that Empress was part of. The vessels also appear to match with a survey by Shell looking at the effects of oil spills on fish that was conducted by AIMS and CSIRO (https://www.shell.com.au/sustainability/environment/_jcr_content/par/toptasks_b64e.stream/1536897880460/97325ba59fd32bc063a028c2b083ec7e468c745b/arp2-milestone-report-5a.pdf). Conclusion: All data are consistent with this MMSI and associated data belonging to the Empress offshore services / supply vessel and not a drifting longline vessel.</t>
-  </si>
-  <si>
     <t>There is very little spatial data for Fukuyo Maru No. 7within Australian waters that can be used to corroborate the identity of the vessel. The vessel is listed on the WCPFC,  IATTC, ICCAT &amp; IOTC vessel registries suggesting that its identification was correct. Conclusion: Assumed to be a correctly identified drifting longline vessel fishing near the boundary of the Australian EEZ.</t>
   </si>
   <si>
@@ -752,6 +698,57 @@
   </si>
   <si>
     <t>There is very little spatial data for Tuna Peak No. 66 within Australian waters that can be used to corroborate the identity of the vessel. The vessel is listed on the WCPFC  vessel registries suggesting that its identification was correct. Conclusion: Assumed to be a correctly identified drifting longline vessel fishing near the boundary of the Australian EEZ.</t>
+  </si>
+  <si>
+    <t>Insung No. 3 is a vessel that undertakes bottom longline fishing for Patagonian toothfish in Antarctic waters. The vessel is listed on the CCAMLR vessel registry (its name has now changed to Sae In Master). Numerous public reports that mention the vessel. The spatial footprint of the vessel is consistent with fishing grounds for toothfish. Conclusion: All data are consistent with this vessel operating as a bottom set longliner and not a drifting longliner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Austral Leader 2 is a vessel that was previously? owned by Austral fisheries (https://www.australfisheries.com.au/) and operated in Commonwealth managed fisheries for toothfish and icefish. It is listed on the CAAMLR  vessel registry. The fisheries it operated in are MSC certified so considerable information exists in the public domain (e.g. MSC website, marketing website: https://glacier51toothfish.com/) that corroborate its identity. These fisheries involve the use of bottom set longlines that are fundamentally different to the drifting pelagic longlines. The spatial data for this vessel are consistent with the sub-Antarctic fishing grounds where toothfish and icefish occur. There is some ambiguity as the MMSI now appears to belong to a different vessel, DP2 Seamaster, which supports offshore oil and gas operations in Western Australia. Despite this, the vast majority of data are consistent with the AIS data for this vessel belonging to the Austral Leader 2 operating in accordance with its licence conditions, and not undertaking drifting longline fishing. </t>
+  </si>
+  <si>
+    <t>Empress is an offshore services / supply vessel owned by Empress Marine (https://www.empressmarine.com.au/). The footprint of this vessel did not overlap with the spatial footprint of the Commonwealth managed Western Tuna &amp; Billfish Fishery between 2012 and 2016  (although there was some potential for overlap with years 2012 and 2013, these don't match with the vessel movements for those years). Empress is not listed on the Navigate (Fisheries WA) vessel registry indicating it does not fish commercially in WA state fisheries. It is also not listed on the IOTC vessel registry. It does appear to have been originally built as a tuna longline vessel (http://fineentrymarine.com.au/builds/empress/). According to the CCSBT vessel registry data it was active during the 2000s (https://www.ccsbt.org/). The AIS vessel movements match closely with the location of a seismic survey that Woodside Energy (https://www.woodside.com.au/) undertook in Western Australia in 2013 that Empress was part of. The vessels also appear to match with a survey by Shell looking at the effects of oil spills on fish that was conducted by AIMS and CSIRO (https://www.shell.com.au/sustainability/environment/_jcr_content/par/toptasks_b64e.stream/1536897880460/97325ba59fd32bc063a028c2b083ec7e468c745b/arp2-milestone-report-5a.pdf). Conclusion: All data are consistent with this MMSI and associated data belonging to the Empress offshore services / supply vessel and not a drifting longline vessel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isla Eden is a vessel owned by Austral Fisheries (https://www.australfisheries.com.au/) and operating in Commonwealth managed fisheries for toothfish and icefish. It is listed on the CCAMLR  vessel registry. The fisheries it operates in are MSC certified so considerable information exists in the public domain. The vessel uses demersal set longlines that are fundamentally different to the drifting pelagic longlines. Conclusion: All lines of evidence are consistent with the MMSI and data belonging to the Isla Eden operating in accordance with its licence conditions, and not undertaking drifting longline fishing. </t>
+  </si>
+  <si>
+    <t>The Janntone is a demersal prawn trawler operating in the Queensland East Coast Otter Trawl Fishery. It is listed on the FishNet (Qld Fisheries) vessel registry. The footprint of this vessel falls within the boundaries of the trawl fishery (T1). The vessel is not listed on the WCPFC record of tuna longline vessels. The vessel footprint also falls mainly within the Great Barrier Reef Marine Park, where the Eastern Tuna &amp; Billfish Fishery is not permitted to operate. Conclusion: All data are consistent with this MMSI and associated data belonging to the Janntone fishing in accordance with its licence conditions and not a drifting longline vessel.</t>
+  </si>
+  <si>
+    <t>The Larissa E is a demersal prawn trawler operating in the Queensland East Coast Otter Trawl Fishery. It is listed on the FishNet (Qld Fisheries) vessel registry. The footprint of this vessel falls within the boundaries of the trawl fishery (T1). The vessel is not listed on the WCPFC record of tuna longline vessels. The vessel footprint also falls mainly within the Great Barrier Reef Marine Park, where the Eastern Tuna &amp; Billfish Fishery is not permitted to operate. Conclusion: All data are consistent with this MMSI and associated data belonging to the Larissa E fishing in accordance with its licence conditions and not a drifting longline vessel.</t>
+  </si>
+  <si>
+    <t>The Lucky S is a vessel involved in the Commonwealth Southern Bluefin Tuna Fishery. In South Australian waters this fishery involves catching tuna with purse seines and ranching them in sea pens. The vessel is listed on the CCSBT vessel registry, and as the holder of a carrier permit in the Southern Bluefin Tuna Fishery and the spatial footprint of the vessel are most consistent with it operating in some capacity in this fishery. The spatial footprint of the vessel does overlap with the WTBF, however the year that the vessel was detected  (2016) does not match the spatial footprint of the WTBF and the vessel is not on the IOTC vessel registry.  Conclusion: All data are consistent with this MMSI and associated data belonging to the Lucky-S engaged in either purse seine fishing or activities related to purse seine fishing.</t>
+  </si>
+  <si>
+    <t>Maddison is a demersal prawn trawler operating in the Queensland East Coast Otter Trawl Fishery. It is listed on the FishNet (Qld Fisheries) vessel registry. The footprint of this vessel falls within the boundaries of the trawl fishery (T1). The vessel is not listed on the WCPFC record of tuna longline vessels. The vessel footprint also falls mainly within the Great Barrier Reef Marine Park, where the Eastern Tuna &amp; Billfish Fishery is not permitted to operate. Conclusion: All data are consistent with this MMSI and associated data belonging to Maddison fishing in accordance with its licence conditions and not a drifting longline vessel.</t>
+  </si>
+  <si>
+    <t>Pelamis No. 68 appears to be a drifting longline vessel that operated in the Commonwealth managed Western Tuna &amp; Billfish Fishery, although there is some ambiguity on its identity. The Pelamis Group website (http://www.pelamisgroup.com/101-fishing-fleet/1011-long-liners/10111-pelamis-68/) shows that it is or was at some point a drifting longliner, and indicates that it has operated in the Western Tuna &amp; Billfish Fishery. No vessel of this name is on the IOTC vessel registry. It appears the vessel may have been previously named the Pacific Raider 4, which is listed on the IOTC vessel registry as an Australian flagged vessel. The spatial data are consistent with the vessel operating in the WTBF. Conclusion: Although there is some ambiguity it does appear as though the original identification as a drifting longliner was correct.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is considerable ambiguity over the identity of this vessel. There appear to be a number of vessels with this name in Australia and elsewhere in the region, and it also appears that this vessel uses multiple gear types to capture multiple species making it more difficult to identify. The vessel is most likely Narooma-based LFB13093, a crayfish trap vessel that may also undertake line fishing. It was not possible to access the vessel registries of NSW state fisheries to confirm this, however. The vessel does have some historic records in RFMO vessel registries suggesting that it had endorsements to catch tuna. It also does appear to have operated as a drifting longliner in the Eastern Tuna and Billfish Fishery, but stopped in 2015. Conclusion: While it seems likely that much of these data are not from drifting longlining, it appears this vessel was operating in the Commonwealth ETBF for part of the period from 2012 to 2016. For the purposes of this exercise the original identification as a drifting longliner is assumed to be correct. </t>
+  </si>
+  <si>
+    <t>There is considerable ambiguity over the identity of Athaldo. It is not listed on WCPFC or Fishnet (Qld Vessel registry) so does not appear to be a commercial fishing vessel. All data were from within a two month period on 2016 in the northern Great Barrier Reef. Further research indicated that a game fishing vessel by this name was participating in the 2016 Cairns black marlin season which is consistent with the spatial footprint of the vessel. Conclusion: The inability to find the vessel on commercial registries, and the lack of any purse seine fisheries that operate in this area of the Great Barrier Reef Marine Park suggest that it is highly unlikely to be a purse seining vessel, and is more likely to be a game fishing vessel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was difficult to verify the identity of the vessel Khaleesi. The spatial footprint of the vessel is in both Qld and NSW waters indicating if it was a commercial fishing vessel it would likely be operating in a Commonwealth or jointly managed fishery. The vessel is not listed on Fishnet (Qld vessel registry), nor is it listed on WCPFC registry, which suggests it iis unlikely a commercial fishing vessel. Instead, the vessel appears to be a NSW-based sailing vessel (https://www.facebook.com/khaleesisailing/), although this is difficult to confirm. Conclusion: The original identification of this vessel as a purse seiner appears to be incorrect. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svitzer Nana is a tug boat owner by Svitzer (https://svitzer.com.au/) and apparently operating out of the Port of Bowen in Queensland. The spatial footprint is restricted to the Bowen area, and the vessel is not listed on WCPFC or Fishnet (Qld Vessel registry) so does not appear to be a involved in tuna fishing or a Qld state commercial fishery. Conclusion: All data are consistent with this vessel being a tug boat and not a purse seine vessel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svitzer Naiad is a tug boat owner by Svitzer (https://svitzer.com.au/) and apparently operating out of the Port of Bowen in Queensland. The spatial footprint is restricted to the Bowen area, and the vessel is not listed on WCPFC or Fishnet (Qld Vessel registry) so does not appear to be a involved in tuna fishing or a Qld state commercial fishery. Conclusion: All data are consistent with this vessel being a tug boat and not a purse seine vessel. </t>
+  </si>
+  <si>
+    <t>Mermaid Chieftain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is some ambiguity over the identity of this vessel. It does not appear on the Navigate (Fisheries WA) vessel registry, nor does it appear in the IOTC vessel registry indicating it is not likely to be a commercial fishing vessel. There are also no purse seine fisheries in WA that operate in this area. The vessel appears to be a tug vessel that was owned by MMA Offshore (https://www.mmaoffshore.com/) based at Dampier Port in the Pilbara, and this is consistent with its spatial footprint. The vessel is listed in some records and reports relating to the offshore oil and gas /resource extraction sector corroborate this. While it does not appear to be a fishing vessel, there is some ambiguity over its identity as MMA offshore does have numerous vessels that include the words 'Mermaid' and 'Chieftain'. Conclusion: The data are most consistent with this being a tug boat and not a purse seine vessel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Naturaliste is a fisheries research vessel owned by the Western Australia state government. The vessel undertakes surveys to support a wide variety of the state's fisheries, in particular demersal trawl surveys for prawn and scallop fisheries in Shark Bay. The vessel undertakes Marine Park monitoring of WA's state managed parks, in particular the Lalang Garram parks and the North Kimberley Marine Park. Although it can be equipped to do a variety of survey methods, it does not undertake purse seining. Conclusion: All data are consistent with the MMSI and movement data belonging to the Naturaliste and not a purse seine vessel. </t>
   </si>
 </sst>
 </file>
@@ -1172,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CA5D28-3E15-AB41-9216-271ECA5EB384}">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="111" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="111" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1252,13 +1249,13 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1287,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J3" s="2">
         <v>3</v>
@@ -1322,13 +1319,13 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J4" s="7">
         <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1357,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J5" s="2">
         <v>3</v>
@@ -1392,13 +1389,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J6" s="2">
         <v>3</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1427,13 +1424,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J7" s="2">
         <v>3</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1497,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J9" s="2">
         <v>3</v>
@@ -1538,7 +1535,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1567,13 +1564,13 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J11" s="2">
         <v>3</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1605,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1634,13 +1631,13 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J13" s="2">
         <v>3</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1669,13 +1666,13 @@
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J14" s="7">
         <v>2</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1704,13 +1701,13 @@
         <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J15" s="2">
         <v>3</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1739,13 +1736,13 @@
         <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J16" s="2">
         <v>3</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1788,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>1</v>
@@ -1806,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1841,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1870,13 +1867,13 @@
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J20" s="2">
         <v>3</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1905,13 +1902,13 @@
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J21" s="2">
         <v>3</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1940,13 +1937,13 @@
         <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J22" s="2">
         <v>3</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1975,13 +1972,13 @@
         <v>1</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J23" s="2">
         <v>3</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2010,13 +2007,13 @@
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J24" s="2">
         <v>3</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>139</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2045,13 +2042,13 @@
         <v>0</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J25" s="2">
         <v>3</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2080,13 +2077,13 @@
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J26" s="13">
         <v>3</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2100,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E27" s="2" t="b">
         <v>1</v>
@@ -2115,13 +2112,13 @@
         <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J27" s="2">
         <v>3</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2153,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2182,13 +2179,13 @@
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J29" s="2">
         <v>3</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2217,13 +2214,13 @@
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J30" s="2">
         <v>3</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2255,7 +2252,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2284,13 +2281,13 @@
         <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J32" s="4">
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2319,13 +2316,13 @@
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J33" s="2">
         <v>3</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2354,13 +2351,13 @@
         <v>1</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J34" s="2">
         <v>3</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2389,13 +2386,13 @@
         <v>1</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J35" s="2">
         <v>3</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2424,13 +2421,13 @@
         <v>1</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J36" s="2">
         <v>3</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2459,13 +2456,13 @@
         <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J37" s="2">
         <v>3</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2494,13 +2491,13 @@
         <v>1</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J38" s="2">
         <v>3</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2529,13 +2526,13 @@
         <v>1</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="J39" s="6">
         <v>0</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2564,13 +2561,13 @@
         <v>1</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J40" s="2">
         <v>3</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2599,13 +2596,13 @@
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="J41" s="4">
         <v>1</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2669,7 +2666,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2701,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2733,7 +2730,7 @@
         <v>3</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2765,7 +2762,7 @@
         <v>3</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2797,7 +2794,7 @@
         <v>3</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2826,13 +2823,13 @@
         <v>1</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="J48" s="2">
         <v>3</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2893,7 +2890,7 @@
         <v>2</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2907,7 +2904,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="E51" s="2" t="b">
         <v>1</v>
@@ -2925,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2954,13 +2951,13 @@
         <v>1</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J52" s="2">
         <v>3</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2992,7 +2989,7 @@
         <v>3</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3021,13 +3018,13 @@
         <v>1</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J54" s="2">
         <v>3</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3056,13 +3053,13 @@
         <v>1</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J55" s="2">
         <v>3</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3076,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E56" s="2" t="b">
         <v>1</v>
@@ -3091,13 +3088,13 @@
         <v>1</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J56" s="13">
         <v>3</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3126,13 +3123,13 @@
         <v>1</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J57" s="2">
         <v>3</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3161,13 +3158,13 @@
         <v>1</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J58" s="2">
         <v>3</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3196,13 +3193,13 @@
         <v>1</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J59" s="2">
         <v>3</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3231,13 +3228,13 @@
         <v>1</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J60" s="2">
         <v>3</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3266,13 +3263,13 @@
         <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J61" s="2">
         <v>3</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3301,13 +3298,13 @@
         <v>1</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J62" s="2">
         <v>3</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3336,13 +3333,13 @@
         <v>1</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J63" s="2">
         <v>3</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3377,7 +3374,7 @@
         <v>3</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3412,7 +3409,7 @@
         <v>3</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3441,13 +3438,13 @@
         <v>1</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J66" s="2">
         <v>3</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3476,13 +3473,13 @@
         <v>1</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J67" s="2">
         <v>3</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3511,13 +3508,13 @@
         <v>1</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J68" s="2">
         <v>3</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3546,13 +3543,13 @@
         <v>1</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J69" s="2">
         <v>3</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3581,13 +3578,13 @@
         <v>1</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J70" s="2">
         <v>3</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3616,13 +3613,13 @@
         <v>1</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J71" s="2">
         <v>3</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3651,13 +3648,13 @@
         <v>1</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J72" s="2">
         <v>3</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3686,13 +3683,13 @@
         <v>1</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J73" s="2">
         <v>3</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3721,13 +3718,13 @@
         <v>1</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J74" s="2">
         <v>3</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3756,13 +3753,13 @@
         <v>1</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J75" s="2">
         <v>3</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3791,13 +3788,13 @@
         <v>1</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J76" s="2">
         <v>3</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3826,13 +3823,13 @@
         <v>1</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J77" s="2">
         <v>3</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3861,13 +3858,13 @@
         <v>1</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J78" s="2">
         <v>3</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3896,13 +3893,13 @@
         <v>1</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J79" s="2">
         <v>3</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3931,13 +3928,13 @@
         <v>1</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J80" s="2">
         <v>3</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3966,13 +3963,13 @@
         <v>1</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J81" s="2">
         <v>3</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4001,13 +3998,13 @@
         <v>1</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J82" s="2">
         <v>3</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4036,13 +4033,13 @@
         <v>1</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J83" s="2">
         <v>3</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4071,13 +4068,13 @@
         <v>1</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J84" s="2">
         <v>3</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4112,7 +4109,7 @@
         <v>3</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4147,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4182,7 +4179,7 @@
         <v>3</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4211,13 +4208,13 @@
         <v>1</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J88" s="2">
         <v>3</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4246,13 +4243,13 @@
         <v>1</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J89" s="2">
         <v>3</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4281,13 +4278,13 @@
         <v>1</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J90" s="2">
         <v>3</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4316,13 +4313,13 @@
         <v>1</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J91" s="2">
         <v>3</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="92" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4351,13 +4348,13 @@
         <v>1</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J92" s="2">
         <v>3</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
